--- a/tut05/output/0401EE21.xlsx
+++ b/tut05/output/0401EE21.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.530612244897959</v>
+        <v>5.53</v>
       </c>
       <c r="C6" t="n">
-        <v>5.295454545454546</v>
+        <v>5.3</v>
       </c>
       <c r="D6" t="n">
-        <v>5.978260869565218</v>
+        <v>5.98</v>
       </c>
       <c r="E6" t="n">
-        <v>6.695652173913044</v>
+        <v>6.7</v>
       </c>
       <c r="F6" t="n">
-        <v>5.692307692307693</v>
+        <v>5.69</v>
       </c>
       <c r="G6" t="n">
-        <v>6.775</v>
+        <v>6.78</v>
       </c>
       <c r="H6" t="n">
-        <v>6.837209302325581</v>
+        <v>6.84</v>
       </c>
       <c r="I6" t="n">
-        <v>6.736842105263158</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.530612244897959</v>
+        <v>5.53</v>
       </c>
       <c r="C8" t="n">
-        <v>5.419354838709677</v>
+        <v>5.42</v>
       </c>
       <c r="D8" t="n">
-        <v>5.60431654676259</v>
+        <v>5.6</v>
       </c>
       <c r="E8" t="n">
-        <v>5.875675675675676</v>
+        <v>5.88</v>
       </c>
       <c r="F8" t="n">
-        <v>5.84375</v>
+        <v>5.84</v>
       </c>
       <c r="G8" t="n">
-        <v>5.984848484848484</v>
+        <v>5.98</v>
       </c>
       <c r="H8" t="n">
-        <v>6.104234527687296</v>
+        <v>6.1</v>
       </c>
       <c r="I8" t="n">
-        <v>6.173913043478261</v>
+        <v>6.17</v>
       </c>
     </row>
   </sheetData>
